--- a/gold_logs.xlsx
+++ b/gold_logs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pimhe/Projects/pingaz/ourguild/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE73F0C2-6166-0B4A-8276-4C0007F6B195}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A27300B3-DC10-7849-94ED-267F40512953}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2680" yWindow="1560" windowWidth="28240" windowHeight="17440" activeTab="1" xr2:uid="{1FD0919C-0253-854F-890C-7FF66786925F}"/>
   </bookViews>
@@ -1466,7 +1466,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1548,11 +1548,11 @@
         <v>10</v>
       </c>
       <c r="D5" s="17">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E5" s="18">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18">
@@ -1708,7 +1708,7 @@
       <c r="D15" s="2"/>
       <c r="E15" s="10">
         <f>E2-SUM(E3:E12)+SUM(E13:E14)</f>
-        <v>-710</v>
+        <v>-610</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="18">
@@ -1721,7 +1721,7 @@
       </c>
       <c r="D16" s="22">
         <f>ROUNDDOWN(E15/C16,0)</f>
-        <v>-17</v>
+        <v>-15</v>
       </c>
       <c r="E16" s="24"/>
     </row>
@@ -1735,7 +1735,7 @@
       </c>
       <c r="D17" s="27">
         <f>D16*5</f>
-        <v>-85</v>
+        <v>-75</v>
       </c>
       <c r="E17" s="28"/>
     </row>

--- a/gold_logs.xlsx
+++ b/gold_logs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pimhe/Projects/pingaz/ourguild/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A27300B3-DC10-7849-94ED-267F40512953}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA8920F1-889B-7343-85F2-DE43710E650D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2680" yWindow="1560" windowWidth="28240" windowHeight="17440" activeTab="1" xr2:uid="{1FD0919C-0253-854F-890C-7FF66786925F}"/>
+    <workbookView xWindow="2680" yWindow="1560" windowWidth="28240" windowHeight="17440" xr2:uid="{1FD0919C-0253-854F-890C-7FF66786925F}"/>
   </bookViews>
   <sheets>
     <sheet name="收入" sheetId="1" r:id="rId1"/>
@@ -661,7 +661,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -720,9 +720,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="4" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="11" xfId="4" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="3" applyFont="1" applyBorder="1">
@@ -1093,8 +1090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAA9DCA6-09E2-E04F-B5B1-9DB0FCAB5039}">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1184,7 +1181,7 @@
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
       <c r="K3" s="17"/>
-      <c r="L3" s="18">
+      <c r="L3" s="16">
         <f t="shared" ref="L3:L16" si="0">B3+D3+F3+H3+J3</f>
         <v>0</v>
       </c>
@@ -1203,7 +1200,7 @@
       <c r="I4" s="19"/>
       <c r="J4" s="19"/>
       <c r="K4" s="19"/>
-      <c r="L4" s="20">
+      <c r="L4" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1222,7 +1219,7 @@
       <c r="I5" s="17"/>
       <c r="J5" s="17"/>
       <c r="K5" s="17"/>
-      <c r="L5" s="18">
+      <c r="L5" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1241,7 +1238,7 @@
       <c r="I6" s="19"/>
       <c r="J6" s="19"/>
       <c r="K6" s="19"/>
-      <c r="L6" s="20">
+      <c r="L6" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1260,7 +1257,7 @@
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
       <c r="K7" s="17"/>
-      <c r="L7" s="18">
+      <c r="L7" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1279,7 +1276,7 @@
       <c r="I8" s="19"/>
       <c r="J8" s="19"/>
       <c r="K8" s="19"/>
-      <c r="L8" s="20">
+      <c r="L8" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1298,7 +1295,7 @@
       <c r="I9" s="17"/>
       <c r="J9" s="17"/>
       <c r="K9" s="17"/>
-      <c r="L9" s="18">
+      <c r="L9" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1317,7 +1314,7 @@
       <c r="I10" s="19"/>
       <c r="J10" s="19"/>
       <c r="K10" s="19"/>
-      <c r="L10" s="20">
+      <c r="L10" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1336,7 +1333,7 @@
       <c r="I11" s="17"/>
       <c r="J11" s="17"/>
       <c r="K11" s="17"/>
-      <c r="L11" s="18">
+      <c r="L11" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1355,7 +1352,7 @@
       <c r="I12" s="19"/>
       <c r="J12" s="19"/>
       <c r="K12" s="19"/>
-      <c r="L12" s="20">
+      <c r="L12" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1374,7 +1371,7 @@
       <c r="I13" s="17"/>
       <c r="J13" s="17"/>
       <c r="K13" s="17"/>
-      <c r="L13" s="18">
+      <c r="L13" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1393,7 +1390,7 @@
       <c r="I14" s="19"/>
       <c r="J14" s="19"/>
       <c r="K14" s="19"/>
-      <c r="L14" s="20">
+      <c r="L14" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1412,7 +1409,7 @@
       <c r="I15" s="17"/>
       <c r="J15" s="17"/>
       <c r="K15" s="17"/>
-      <c r="L15" s="18">
+      <c r="L15" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1431,7 +1428,7 @@
       <c r="I16" s="19"/>
       <c r="J16" s="19"/>
       <c r="K16" s="19"/>
-      <c r="L16" s="20">
+      <c r="L16" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1465,34 +1462,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B964217-CC69-1849-B8C9-A23CE7CC7AD0}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:5" ht="22" thickBot="1">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="32" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="19" thickTop="1">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="30"/>
+      <c r="B2" s="29"/>
       <c r="C2" s="3">
         <v>1</v>
       </c>
@@ -1506,10 +1503,10 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="18">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="20" t="s">
         <v>25</v>
       </c>
       <c r="C3" s="17">
@@ -1524,8 +1521,8 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="18">
-      <c r="A4" s="34"/>
-      <c r="B4" s="21" t="s">
+      <c r="A4" s="33"/>
+      <c r="B4" s="20" t="s">
         <v>31</v>
       </c>
       <c r="C4" s="1">
@@ -1540,8 +1537,8 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="18">
-      <c r="A5" s="34"/>
-      <c r="B5" s="21" t="s">
+      <c r="A5" s="33"/>
+      <c r="B5" s="20" t="s">
         <v>32</v>
       </c>
       <c r="C5" s="17">
@@ -1556,8 +1553,8 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="18">
-      <c r="A6" s="34"/>
-      <c r="B6" s="21" t="s">
+      <c r="A6" s="33"/>
+      <c r="B6" s="20" t="s">
         <v>33</v>
       </c>
       <c r="C6" s="1">
@@ -1572,10 +1569,10 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="18">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="20" t="s">
         <v>35</v>
       </c>
       <c r="C7" s="17">
@@ -1590,8 +1587,8 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="18">
-      <c r="A8" s="34"/>
-      <c r="B8" s="21" t="s">
+      <c r="A8" s="33"/>
+      <c r="B8" s="20" t="s">
         <v>36</v>
       </c>
       <c r="C8" s="1">
@@ -1606,8 +1603,8 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="18">
-      <c r="A9" s="34"/>
-      <c r="B9" s="21" t="s">
+      <c r="A9" s="33"/>
+      <c r="B9" s="20" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="17">
@@ -1622,8 +1619,8 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="18">
-      <c r="A10" s="34"/>
-      <c r="B10" s="21" t="s">
+      <c r="A10" s="33"/>
+      <c r="B10" s="20" t="s">
         <v>38</v>
       </c>
       <c r="C10" s="1">
@@ -1638,8 +1635,8 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="18">
-      <c r="A11" s="34"/>
-      <c r="B11" s="21" t="s">
+      <c r="A11" s="33"/>
+      <c r="B11" s="20" t="s">
         <v>39</v>
       </c>
       <c r="C11" s="17">
@@ -1654,8 +1651,8 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="18">
-      <c r="A12" s="34"/>
-      <c r="B12" s="21" t="s">
+      <c r="A12" s="33"/>
+      <c r="B12" s="20" t="s">
         <v>40</v>
       </c>
       <c r="C12" s="1">
@@ -1670,10 +1667,10 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="18">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="20" t="s">
         <v>45</v>
       </c>
       <c r="C13" s="1"/>
@@ -1686,8 +1683,8 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="18">
-      <c r="A14" s="36"/>
-      <c r="B14" s="21" t="s">
+      <c r="A14" s="35"/>
+      <c r="B14" s="20" t="s">
         <v>46</v>
       </c>
       <c r="C14" s="1"/>
@@ -1700,10 +1697,10 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="18">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="21"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="10">
@@ -1712,32 +1709,32 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="18">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="22">
+      <c r="B16" s="20"/>
+      <c r="C16" s="21">
         <v>40</v>
       </c>
-      <c r="D16" s="22">
+      <c r="D16" s="21">
         <f>ROUNDDOWN(E15/C16,0)</f>
         <v>-15</v>
       </c>
-      <c r="E16" s="24"/>
+      <c r="E16" s="23"/>
     </row>
     <row r="17" spans="1:5" ht="19" thickBot="1">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="27">
+      <c r="B17" s="25"/>
+      <c r="C17" s="26">
         <v>8</v>
       </c>
-      <c r="D17" s="27">
+      <c r="D17" s="26">
         <f>D16*5</f>
         <v>-75</v>
       </c>
-      <c r="E17" s="28"/>
+      <c r="E17" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/gold_logs.xlsx
+++ b/gold_logs.xlsx
@@ -8,14 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pimhe/Projects/pingaz/ourguild/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA8920F1-889B-7343-85F2-DE43710E650D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01210ED9-B9A2-BE45-AD0D-619B0FA1B631}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2680" yWindow="1560" windowWidth="28240" windowHeight="17440" xr2:uid="{1FD0919C-0253-854F-890C-7FF66786925F}"/>
   </bookViews>
   <sheets>
     <sheet name="收入" sheetId="1" r:id="rId1"/>
     <sheet name="分配" sheetId="2" r:id="rId2"/>
+    <sheet name="掉落" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">掉落!$B$2:$B$24</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="183">
   <si>
     <t>掉落一</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -212,6 +216,548 @@
   </si>
   <si>
     <t>恶意行为</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量护手</t>
+  </si>
+  <si>
+    <t>恶魔之心手套</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>启示项链</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥术师便鞋</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>塞纳里奥长靴</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>秩序之源战靴</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>波动长袍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>沉重的黑铁戒指</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>法力风暴护腿</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术能量之戒</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>召火腿甲</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>冯格曼达</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>震地者</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>速射强弓</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>预言短裤</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶魔之心短裤</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>塞纳里奥护腿</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>稳固之力勋章</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥术师护腿</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量腿铠</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜幕杀手短裤</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>艾斯卡达尔的右爪</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨人追猎者护腿</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>秩序之源腿铠</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>火焰符文魔典</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>烈焰守护护手</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>迅击戒指</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>短暂能量护符</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>古代熔火皮手套</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑曜石之刃</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>燃魔腰带</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>岩浆长靴</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>地核护肩</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>烈焰行者重靴</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜幕杀手手套</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>预言手套</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨人追猎者长靴</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量马靴</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>秩序之源护手</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>赤红震荡者</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>火蜥蜴鳞片短裤</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>稳固护腕</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>巫术匕首</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>逐风者禁锢之颅</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>光环石锤</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>残忍利刃</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>血腥撕裂者</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻孔虫之碟</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>预言头饰</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>塞纳里奥角饰</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥术师头冠</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量头盔</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜幕杀手头巾</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨人追猎者头盔</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>秩序之源头盔</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥术师衬肩</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>塞纳里奥肩甲</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法导师的封印</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶魔之心护肩</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>秩序之源肩铠</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>结构图：力反馈盾牌</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计图：元素磨刀石</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>图样：熔火护甲片</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>公式：附魔武器-治疗能力</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥术师手套</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>塞纳里奥手套</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨人追猎者手套</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶魔之心便鞋</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>预言之靴</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜幕杀手长靴</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>萨弗隆铁锭</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>碧空之歌</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>统御法杖</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥术师长袍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶魔之心长袍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨人追猎者胸甲</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜幕杀手胸甲</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆击猎枪</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>预言法袍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量胸甲</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>塞纳里奥胸甲</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>秩序之源胸甲</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>配方：特效活力药水</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜幕杀手护肩</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗影之击</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量肩铠</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>预言衬肩</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨人追猎者肩饰</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理者埃克索图斯</t>
+  </si>
+  <si>
+    <t>熔火犬牙</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>远古石叶</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>神圣之眼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>耳语秘言腰带</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>防火披风</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂野肩铠</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>真龙护腕</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>炎魔之王</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>萨弗拉斯之眼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯焰精华</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>复仇护腿</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵风短裤</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>怒风腿甲</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>毁灭之刃</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>玛利斯达尔防御者</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>愤怒腿铠</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>环雾披风</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>萨弗拉斯指环</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>卓越护腿</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲击束带</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>火焰之王的项圈</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨龙追猎者腿甲</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙血斗篷</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>血牙短裤</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>埃古雷亚指环</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>审判腿铠</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>毁灭王冠</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>烈焰碎片</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>脊骨收割者</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>削骨之刃</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>小怪</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>预言护腕</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>预言腰带</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥术师护腕</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥术师腰带</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量护腕</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量腰带</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜幕杀手护腕</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜幕杀手腰带</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨人追猎者护腕</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨人追猎者腰带</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶魔之心护腕</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶魔之心腰带</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>秩序之源护腕</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>秩序之源腰带</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>塞纳里奥护腕</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>塞纳里奥腰带</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -219,7 +765,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="19">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -328,6 +874,55 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF942092"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF942092"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="5"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -644,7 +1239,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -660,8 +1255,11 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -770,16 +1368,49 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="3" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="21" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="5" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="21" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="20% - 着色 1" xfId="4" builtinId="30"/>
     <cellStyle name="标题 1" xfId="1" builtinId="16"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8"/>
     <cellStyle name="汇总" xfId="2" builtinId="25"/>
     <cellStyle name="着色 1" xfId="3" builtinId="29"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF942092"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1088,16 +1719,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAA9DCA6-09E2-E04F-B5B1-9DB0FCAB5039}">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L16"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" customWidth="1"/>
+    <col min="1" max="1" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" customWidth="1"/>
     <col min="4" max="4" width="15.83203125" customWidth="1"/>
     <col min="5" max="5" width="9.6640625" customWidth="1"/>
@@ -1163,7 +1794,7 @@
       <c r="J2" s="15"/>
       <c r="K2" s="15"/>
       <c r="L2" s="16">
-        <f>B2+D2+F2+H2+J2</f>
+        <f>C2+E2+G2+I2+K2</f>
         <v>0</v>
       </c>
     </row>
@@ -1182,7 +1813,7 @@
       <c r="J3" s="17"/>
       <c r="K3" s="17"/>
       <c r="L3" s="16">
-        <f t="shared" ref="L3:L16" si="0">B3+D3+F3+H3+J3</f>
+        <f t="shared" ref="L3:L18" si="0">C3+E3+G3+I3+K3</f>
         <v>0</v>
       </c>
     </row>
@@ -1301,56 +1932,51 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="21">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="16"/>
+    </row>
+    <row r="11" spans="1:12" ht="21" customHeight="1">
+      <c r="A11" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="21">
-      <c r="A11" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
       <c r="L11" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="21">
-      <c r="A12" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
+    <row r="12" spans="1:12" ht="21" customHeight="1">
+      <c r="A12" s="37"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
       <c r="K12" s="19"/>
       <c r="L12" s="16">
         <f t="shared" si="0"/>
@@ -1359,7 +1985,7 @@
     </row>
     <row r="13" spans="1:12" ht="21">
       <c r="A13" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
@@ -1378,7 +2004,7 @@
     </row>
     <row r="14" spans="1:12" ht="21">
       <c r="A14" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
@@ -1397,7 +2023,7 @@
     </row>
     <row r="15" spans="1:12" ht="21">
       <c r="A15" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
@@ -1416,7 +2042,7 @@
     </row>
     <row r="16" spans="1:12" ht="21">
       <c r="A16" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
@@ -1433,28 +2059,141 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="22" thickBot="1">
-      <c r="A17" s="12" t="s">
+    <row r="17" spans="1:12" ht="21">
+      <c r="A17" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="21">
+      <c r="A18" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="22" thickBot="1">
+      <c r="A19" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="14">
-        <f>SUM(L2:L16)</f>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="14">
+        <f>SUM(L2:L18)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A11:A12"/>
+  </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="11">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{343BFFB4-5F43-2C48-B355-BABFE4FD9A04}">
+          <x14:formula1>
+            <xm:f>掉落!$A$2:$A$12</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2 D2 F2 H2 J2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{42F5CA2B-6ECD-144A-A65B-FA25C61622A3}">
+          <x14:formula1>
+            <xm:f>掉落!$B$2:$B$24</xm:f>
+          </x14:formula1>
+          <xm:sqref>B3 D3 F3 H3 J3</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{8BEE8713-4BB9-AA47-8FD3-08C18A5BE325}">
+          <x14:formula1>
+            <xm:f>掉落!$C$2:$C$15</xm:f>
+          </x14:formula1>
+          <xm:sqref>B4 D4 F4 H4 J4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{4CFC33F4-4AB5-2D49-A810-4DA0B84B1F18}">
+          <x14:formula1>
+            <xm:f>掉落!$D$2:$D$24</xm:f>
+          </x14:formula1>
+          <xm:sqref>B5 D5 F5 H5 J5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{953CC4F3-5B71-4349-8BF4-8AA132CF9ADA}">
+          <x14:formula1>
+            <xm:f>掉落!$E$2:$E$19</xm:f>
+          </x14:formula1>
+          <xm:sqref>B6 D6 F6 H6 J6</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{2030533F-08AD-CB44-A473-BD42F27A75B4}">
+          <x14:formula1>
+            <xm:f>掉落!$F$2:$F$11</xm:f>
+          </x14:formula1>
+          <xm:sqref>B7 D7 F7 H7 J7</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{5A97B7B6-5403-A941-B296-E2794FA5FA51}">
+          <x14:formula1>
+            <xm:f>掉落!$G$2:$G$23</xm:f>
+          </x14:formula1>
+          <xm:sqref>B8 D8 F8 H8 J8</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{488B5D19-CE3F-5746-B87E-50B8504E4E3B}">
+          <x14:formula1>
+            <xm:f>掉落!$H$2:$H$14</xm:f>
+          </x14:formula1>
+          <xm:sqref>B9 D9 F9 H9 J9</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{D6C733AB-CDEC-9244-A60F-CE11A2DD2B4C}">
+          <x14:formula1>
+            <xm:f>掉落!$I$2:$I$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>B10 D10 F10 H10 J10</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{6C64730C-B852-F34A-BD94-3008476D6F30}">
+          <x14:formula1>
+            <xm:f>掉落!$J$2:$J$23</xm:f>
+          </x14:formula1>
+          <xm:sqref>B11:B12 D11:D12 F11:F12 H11:H12 J11:J12</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{DBAF1789-9BC6-194E-8D85-2827C4FC4266}">
+          <x14:formula1>
+            <xm:f>掉落!$K$2:$K$17</xm:f>
+          </x14:formula1>
+          <xm:sqref>D13:D15 F13:F15 H13:H15 J13:J15 B13:B15</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1494,7 +2233,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="3">
-        <f>收入!L17</f>
+        <f>收入!L19</f>
         <v>0</v>
       </c>
       <c r="E2" s="8">
@@ -1745,4 +2484,661 @@
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{012DBEF5-0328-5342-A60B-07EE5BB1CA89}">
+  <dimension ref="A1:K26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21" customWidth="1"/>
+    <col min="7" max="7" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.6640625" customWidth="1"/>
+    <col min="11" max="11" width="16.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
+        <v>135</v>
+      </c>
+      <c r="J1" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="G2" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="H2" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="I2" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="J2" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="K2" s="40" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="F3" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="G3" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="H3" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="I3" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="J3" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="K3" s="40" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="G4" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="H4" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="I4" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="J4" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="K4" s="39" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="F5" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="G5" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="H5" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="I5" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="J5" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="K5" s="39" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="F6" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="G6" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="H6" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="I6" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="J6" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="K6" s="39" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="G7" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="H7" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="I7" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="J7" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="K7" s="39" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="H8" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="J8" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="K8" s="39" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="G9" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="H9" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="J9" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="K9" s="39" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="H10" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="J10" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="K10" s="39" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="E11" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="G11" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="H11" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="J11" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="K11" s="39" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="H12" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="J12" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="K12" s="39" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="B13" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="G13" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="H13" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="J13" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="K13" s="39" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="B14" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="E14" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="H14" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="J14" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="K14" s="39" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="B15" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="J15" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="K15" s="39" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="B16" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="J16" s="40" t="s">
+        <v>155</v>
+      </c>
+      <c r="K16" s="39" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="B17" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="G17" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="J17" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="K17" s="39" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11">
+      <c r="B18" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="G18" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="J18" s="40" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11">
+      <c r="B19" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="G19" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="J19" s="40" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11">
+      <c r="B20" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="G20" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="J20" s="40" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11">
+      <c r="B21" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="G21" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="J21" s="40" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11">
+      <c r="B22" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="G22" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="J22" s="40" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11">
+      <c r="B23" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="G23" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="J23" s="40" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11">
+      <c r="B24" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" s="39" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11">
+      <c r="B25" s="42" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11">
+      <c r="B26" s="42" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>